--- a/Documentacion APPs/PARAMETROS - CLASES.xlsx
+++ b/Documentacion APPs/PARAMETROS - CLASES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sa\sistema-sa\Documentacion APPs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sa\sistema\Documentacion APPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
   <si>
     <t>SOLTERO</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>Fecha de Incorporacion</t>
+  </si>
+  <si>
+    <t>PARCELA</t>
+  </si>
+  <si>
+    <t>.:::.PARCELA.:::.</t>
   </si>
 </sst>
 </file>
@@ -718,8 +724,8 @@
   <dimension ref="A1:J311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,12 +1760,24 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2006</v>
+      </c>
+      <c r="D56" s="3">
+        <v>10</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58"/>

--- a/Documentacion APPs/PARAMETROS - CLASES.xlsx
+++ b/Documentacion APPs/PARAMETROS - CLASES.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
   <si>
     <t>SOLTERO</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>.:::.PARCELA.:::.</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>.:::.PRODUCTO.:::.</t>
   </si>
 </sst>
 </file>
@@ -725,7 +731,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,6 +1782,26 @@
         <v>93</v>
       </c>
       <c r="G56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2007</v>
+      </c>
+      <c r="D57" s="3">
+        <v>10</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Documentacion APPs/PARAMETROS - CLASES.xlsx
+++ b/Documentacion APPs/PARAMETROS - CLASES.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
   <si>
     <t>SOLTERO</t>
   </si>
@@ -315,6 +315,30 @@
   </si>
   <si>
     <t>.:::.PRODUCTO.:::.</t>
+  </si>
+  <si>
+    <t>CPOF</t>
+  </si>
+  <si>
+    <t>CAFÉ PERGAMINO ORGÁNICO FAIRTRADE</t>
+  </si>
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>CAFÉ PERGAMINO FAIRTRADE</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CAFÉ ORGÁNICO</t>
+  </si>
+  <si>
+    <t>COSECHAS</t>
+  </si>
+  <si>
+    <t>.:::.COSECHAS.:::.</t>
   </si>
 </sst>
 </file>
@@ -730,8 +754,8 @@
   <dimension ref="A1:J311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,33 +1830,86 @@
       </c>
     </row>
     <row r="58" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-    </row>
-    <row r="63" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>2038</v>
-      </c>
-      <c r="D63">
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2007</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1001</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>2007</v>
+      </c>
+      <c r="D59">
+        <v>1002</v>
+      </c>
+      <c r="E59" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>2007</v>
+      </c>
+      <c r="D60">
+        <v>1003</v>
+      </c>
+      <c r="E60" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="3">
+        <v>0</v>
+      </c>
+      <c r="C61" s="3">
+        <v>2008</v>
+      </c>
+      <c r="D61" s="3">
         <v>10</v>
       </c>
-      <c r="E63" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" t="s">
-        <v>30</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="E61" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64"/>
       <c r="C64"/>
@@ -1848,6 +1925,26 @@
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>2038</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72"/>

--- a/Documentacion APPs/PARAMETROS - CLASES.xlsx
+++ b/Documentacion APPs/PARAMETROS - CLASES.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="119">
   <si>
     <t>SOLTERO</t>
   </si>
@@ -339,6 +339,51 @@
   </si>
   <si>
     <t>.:::.COSECHAS.:::.</t>
+  </si>
+  <si>
+    <t>TIPO DE COMPROBANTE DE PAGO</t>
+  </si>
+  <si>
+    <t>.:::.TIPO DE COMPROBANTE DE PAGO O DOCUMENTO .:::.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURA </t>
+  </si>
+  <si>
+    <t>COMPROBANTE DE ENTRADA</t>
+  </si>
+  <si>
+    <t>BOLETA</t>
+  </si>
+  <si>
+    <t>.:::.NUMERO DE SERIE DE TIPO DE COMPROBANTE DE PAGO .:::.</t>
+  </si>
+  <si>
+    <t>.:::.PUNTO DE EMISIÓN COMPROBANTE DE PAGO .:::.</t>
+  </si>
+  <si>
+    <t>NUMERO DE SERIE</t>
+  </si>
+  <si>
+    <t>PUNTO EMISIÓN</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
   </si>
 </sst>
 </file>
@@ -438,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -470,6 +515,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,11 +799,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:J327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +811,7 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46" customWidth="1"/>
+    <col min="6" max="6" width="56" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1412,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>0</v>
       </c>
@@ -1432,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
         <v>1</v>
       </c>
@@ -1452,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="9">
         <v>2</v>
       </c>
@@ -1472,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
         <v>3</v>
       </c>
@@ -1492,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="9">
         <v>4</v>
       </c>
@@ -1512,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="9">
         <v>5</v>
       </c>
@@ -1532,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="9">
         <v>6</v>
       </c>
@@ -1552,423 +1600,657 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="3">
-        <v>0</v>
-      </c>
-      <c r="C46" s="3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1007</v>
+      </c>
+      <c r="D40" s="5">
+        <v>10</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="5">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1008</v>
+      </c>
+      <c r="D41" s="5">
+        <v>10</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="9">
+        <v>1</v>
+      </c>
+      <c r="C42" s="9">
+        <v>1008</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1001</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="9">
+        <v>2</v>
+      </c>
+      <c r="C43" s="9">
+        <v>1008</v>
+      </c>
+      <c r="D43" s="9">
+        <v>1002</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="9">
+        <v>3</v>
+      </c>
+      <c r="C44" s="9">
+        <v>1008</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1003</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="5">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1009</v>
+      </c>
+      <c r="D45" s="5">
+        <v>10</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="9">
+        <v>1</v>
+      </c>
+      <c r="C46" s="9">
+        <v>1009</v>
+      </c>
+      <c r="D46" s="9">
+        <v>1001</v>
+      </c>
+      <c r="E46" s="13">
+        <v>1</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="9">
+        <v>2</v>
+      </c>
+      <c r="C47" s="9">
+        <v>1009</v>
+      </c>
+      <c r="D47" s="9">
+        <v>1002</v>
+      </c>
+      <c r="E47" s="13">
+        <v>2</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="9">
+        <v>3</v>
+      </c>
+      <c r="C48" s="9">
+        <v>1009</v>
+      </c>
+      <c r="D48" s="9">
+        <v>1003</v>
+      </c>
+      <c r="E48" s="13">
+        <v>3</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="9">
+        <v>4</v>
+      </c>
+      <c r="C49" s="9">
+        <v>1009</v>
+      </c>
+      <c r="D49" s="9">
+        <v>1004</v>
+      </c>
+      <c r="E49" s="13">
+        <v>4</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="9">
+        <v>5</v>
+      </c>
+      <c r="C50" s="9">
+        <v>1009</v>
+      </c>
+      <c r="D50" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E50" s="13">
+        <v>5</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G50" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="9">
+        <v>6</v>
+      </c>
+      <c r="C51" s="9">
+        <v>1009</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1006</v>
+      </c>
+      <c r="E51" s="13">
+        <v>6</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G51" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3">
         <v>2001</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D62" s="3">
         <v>10</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="3">
-        <v>0</v>
-      </c>
-      <c r="C47" s="3">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3">
         <v>2002</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="3">
-        <v>0</v>
-      </c>
-      <c r="C48" s="3">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3">
         <v>2003</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D64" s="3">
         <v>10</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="2">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
         <v>2003</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D65" s="2">
         <v>1001</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="2">
-        <v>1</v>
-      </c>
-      <c r="I49">
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+      <c r="I65">
         <v>2</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J65" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="2">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="2">
         <v>2</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C66" s="2">
         <v>2003</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D66" s="2">
         <v>1002</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="3">
-        <v>0</v>
-      </c>
-      <c r="C51" s="3">
+      <c r="G66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
+      <c r="C67" s="3">
         <v>2004</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D67" s="3">
         <v>10</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F67" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G51" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="2">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2">
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
         <v>2004</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D68" s="2">
         <v>1001</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G52" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="2">
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="2">
         <v>2</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C69" s="2">
         <v>2004</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D69" s="2">
         <v>1002</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="3">
-        <v>0</v>
-      </c>
-      <c r="C54" s="3">
+      <c r="G69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3">
         <v>2005</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D70" s="3">
         <v>10</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F70" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="2">
-        <v>1</v>
-      </c>
-      <c r="C55" s="2">
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2">
         <v>2005</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D71" s="2">
         <v>1001</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G55" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="3">
-        <v>0</v>
-      </c>
-      <c r="C56" s="3">
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3">
         <v>2006</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D72" s="3">
         <v>10</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G56" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="3">
-        <v>0</v>
-      </c>
-      <c r="C57" s="3">
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="3">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3">
         <v>2007</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D73" s="3">
         <v>10</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="3">
-        <v>1</v>
-      </c>
-      <c r="C58" s="3">
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="3">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3">
         <v>2007</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D74" s="3">
         <v>1001</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G58" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59">
+      <c r="G74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75">
         <v>2</v>
       </c>
-      <c r="C59">
+      <c r="C75">
         <v>2007</v>
       </c>
-      <c r="D59">
+      <c r="D75">
         <v>1002</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E75" t="s">
         <v>98</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F75" t="s">
         <v>99</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60">
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76">
         <v>3</v>
       </c>
-      <c r="C60">
+      <c r="C76">
         <v>2007</v>
       </c>
-      <c r="D60">
+      <c r="D76">
         <v>1003</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E76" t="s">
         <v>100</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F76" t="s">
         <v>101</v>
       </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="3">
-        <v>0</v>
-      </c>
-      <c r="C61" s="3">
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="3">
+        <v>0</v>
+      </c>
+      <c r="C77" s="3">
         <v>2008</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D77" s="3">
         <v>10</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F77" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-    </row>
-    <row r="68" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>2038</v>
-      </c>
-      <c r="D70">
-        <v>10</v>
-      </c>
-      <c r="E70" t="s">
-        <v>30</v>
-      </c>
-      <c r="F70" t="s">
-        <v>30</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-    </row>
-    <row r="76" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-    </row>
-    <row r="79" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
+      <c r="G77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
     </row>
     <row r="84" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84"/>
@@ -1978,6 +2260,26 @@
       <c r="F84"/>
       <c r="G84"/>
     </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>2038</v>
+      </c>
+      <c r="D86">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
     <row r="88" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88"/>
       <c r="C88"/>
@@ -1994,29 +2296,37 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="96" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-    </row>
-    <row r="99" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-    </row>
-    <row r="103" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
+    <row r="95" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+    </row>
+    <row r="100" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+    </row>
+    <row r="104" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+    </row>
+    <row r="108" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
     </row>
     <row r="112" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112"/>
@@ -2026,32 +2336,39 @@
       <c r="F112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113"/>
-      <c r="G113"/>
-    </row>
-    <row r="123" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123"/>
-      <c r="F123"/>
-      <c r="G123"/>
-    </row>
-    <row r="131" spans="2:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B131"/>
-      <c r="C131"/>
-      <c r="D131"/>
-      <c r="E131"/>
-      <c r="F131"/>
-      <c r="G131"/>
-      <c r="I131" s="4"/>
-    </row>
-    <row r="139" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+    </row>
+    <row r="119" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+    </row>
+    <row r="128" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+    </row>
+    <row r="129" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+    </row>
+    <row r="139" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139"/>
       <c r="C139"/>
       <c r="D139"/>
@@ -2059,61 +2376,54 @@
       <c r="F139"/>
       <c r="G139"/>
     </row>
-    <row r="145" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B145"/>
-      <c r="C145"/>
-      <c r="D145"/>
-      <c r="E145"/>
-      <c r="F145"/>
-      <c r="G145"/>
-    </row>
-    <row r="148" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B148"/>
-      <c r="C148"/>
-      <c r="D148"/>
-      <c r="E148"/>
-      <c r="F148"/>
-      <c r="G148"/>
-    </row>
-    <row r="152" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B152"/>
-      <c r="C152"/>
-      <c r="D152"/>
-      <c r="E152"/>
-      <c r="F152"/>
-      <c r="G152"/>
-    </row>
-    <row r="157" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B157"/>
-      <c r="C157"/>
-      <c r="D157"/>
-      <c r="E157"/>
-      <c r="F157"/>
-      <c r="G157"/>
-    </row>
-    <row r="160" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B160"/>
-      <c r="C160"/>
-      <c r="D160"/>
-      <c r="E160"/>
-      <c r="F160"/>
-      <c r="G160"/>
-    </row>
-    <row r="167" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B167"/>
-      <c r="C167"/>
-      <c r="D167"/>
-      <c r="E167"/>
-      <c r="F167"/>
-      <c r="G167"/>
-    </row>
-    <row r="170" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B170"/>
-      <c r="C170"/>
-      <c r="D170"/>
-      <c r="E170"/>
-      <c r="F170"/>
-      <c r="G170"/>
+    <row r="147" spans="2:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="I147" s="4"/>
+    </row>
+    <row r="155" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155"/>
+      <c r="G155"/>
+    </row>
+    <row r="161" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
+    </row>
+    <row r="164" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164"/>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164"/>
+      <c r="G164"/>
+    </row>
+    <row r="168" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168"/>
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168"/>
+      <c r="G168"/>
+    </row>
+    <row r="173" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173"/>
+      <c r="C173"/>
+      <c r="D173"/>
+      <c r="E173"/>
+      <c r="F173"/>
+      <c r="G173"/>
     </row>
     <row r="176" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B176"/>
@@ -2123,21 +2433,21 @@
       <c r="F176"/>
       <c r="G176"/>
     </row>
-    <row r="184" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B184"/>
-      <c r="C184"/>
-      <c r="D184"/>
-      <c r="E184"/>
-      <c r="F184"/>
-      <c r="G184"/>
-    </row>
-    <row r="187" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B187"/>
-      <c r="C187"/>
-      <c r="D187"/>
-      <c r="E187"/>
-      <c r="F187"/>
-      <c r="G187"/>
+    <row r="183" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B183"/>
+      <c r="C183"/>
+      <c r="D183"/>
+      <c r="E183"/>
+      <c r="F183"/>
+      <c r="G183"/>
+    </row>
+    <row r="186" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B186"/>
+      <c r="C186"/>
+      <c r="D186"/>
+      <c r="E186"/>
+      <c r="F186"/>
+      <c r="G186"/>
     </row>
     <row r="192" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B192"/>
@@ -2155,118 +2465,88 @@
       <c r="F200"/>
       <c r="G200"/>
     </row>
-    <row r="205" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B205"/>
-      <c r="C205"/>
-      <c r="D205"/>
-      <c r="E205"/>
-      <c r="F205"/>
-      <c r="G205"/>
-    </row>
-    <row r="219" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H219" s="3"/>
-    </row>
-    <row r="228" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H228" s="3"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H246" s="6"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H247" s="6"/>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H248" s="7"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H249" s="7"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H250" s="7"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H251" s="7"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H252" s="3"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H253" s="7"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H254" s="7"/>
-    </row>
-    <row r="255" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B255"/>
-      <c r="C255"/>
-      <c r="D255"/>
-      <c r="E255"/>
-      <c r="F255"/>
-      <c r="G255"/>
-      <c r="H255" s="8"/>
-    </row>
-    <row r="256" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256"/>
-      <c r="B256"/>
-      <c r="C256"/>
-      <c r="D256"/>
-      <c r="E256"/>
-      <c r="F256"/>
-      <c r="G256"/>
-      <c r="H256" s="7"/>
-    </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H257" s="7"/>
-    </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H258" s="7"/>
-    </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H259" s="7"/>
-    </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H260" s="7"/>
-    </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H261" s="7"/>
-    </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H262" s="7"/>
-    </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H263" s="7"/>
-    </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B203"/>
+      <c r="C203"/>
+      <c r="D203"/>
+      <c r="E203"/>
+      <c r="F203"/>
+      <c r="G203"/>
+    </row>
+    <row r="208" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B208"/>
+      <c r="C208"/>
+      <c r="D208"/>
+      <c r="E208"/>
+      <c r="F208"/>
+      <c r="G208"/>
+    </row>
+    <row r="216" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B216"/>
+      <c r="C216"/>
+      <c r="D216"/>
+      <c r="E216"/>
+      <c r="F216"/>
+      <c r="G216"/>
+    </row>
+    <row r="221" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B221"/>
+      <c r="C221"/>
+      <c r="D221"/>
+      <c r="E221"/>
+      <c r="F221"/>
+      <c r="G221"/>
+    </row>
+    <row r="235" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H235" s="3"/>
+    </row>
+    <row r="244" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H244" s="3"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H262" s="6"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H263" s="6"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H264" s="7"/>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H265" s="7"/>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H266" s="7"/>
     </row>
-    <row r="267" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B267"/>
-      <c r="C267"/>
-      <c r="D267"/>
-      <c r="E267"/>
-      <c r="F267"/>
-      <c r="G267"/>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H267" s="7"/>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H268" s="7"/>
-    </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H268" s="3"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H269" s="7"/>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H270" s="7"/>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H271" s="7"/>
-    </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B271"/>
+      <c r="C271"/>
+      <c r="D271"/>
+      <c r="E271"/>
+      <c r="F271"/>
+      <c r="G271"/>
+      <c r="H271" s="8"/>
+    </row>
+    <row r="272" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272"/>
+      <c r="B272"/>
+      <c r="C272"/>
+      <c r="D272"/>
+      <c r="E272"/>
+      <c r="F272"/>
+      <c r="G272"/>
       <c r="H272" s="7"/>
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.25">
@@ -2287,50 +2567,26 @@
     <row r="278" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H278" s="7"/>
     </row>
-    <row r="279" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B279"/>
-      <c r="C279"/>
-      <c r="D279"/>
-      <c r="E279"/>
-      <c r="F279"/>
-      <c r="G279"/>
-      <c r="H279" s="6"/>
-    </row>
-    <row r="280" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B280"/>
-      <c r="C280"/>
-      <c r="D280"/>
-      <c r="E280"/>
-      <c r="F280"/>
-      <c r="G280"/>
-      <c r="H280" s="6"/>
-    </row>
-    <row r="281" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B281"/>
-      <c r="C281"/>
-      <c r="D281"/>
-      <c r="E281"/>
-      <c r="F281"/>
-      <c r="G281"/>
-      <c r="H281" s="6"/>
-    </row>
-    <row r="282" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B282"/>
-      <c r="C282"/>
-      <c r="D282"/>
-      <c r="E282"/>
-      <c r="F282"/>
-      <c r="G282"/>
-      <c r="H282" s="6"/>
-    </row>
-    <row r="283" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H279" s="7"/>
+    </row>
+    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H280" s="7"/>
+    </row>
+    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H281" s="7"/>
+    </row>
+    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H282" s="7"/>
+    </row>
+    <row r="283" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B283"/>
       <c r="C283"/>
       <c r="D283"/>
       <c r="E283"/>
       <c r="F283"/>
       <c r="G283"/>
-      <c r="H283" s="6"/>
+      <c r="H283" s="7"/>
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H284" s="7"/>
@@ -2347,75 +2603,153 @@
     <row r="288" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H288" s="7"/>
     </row>
-    <row r="289" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H289" s="7"/>
     </row>
-    <row r="290" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H290" s="7"/>
     </row>
-    <row r="291" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H291" s="7"/>
     </row>
-    <row r="292" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H292" s="7"/>
     </row>
-    <row r="293" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H293" s="7"/>
     </row>
-    <row r="294" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H294" s="7"/>
     </row>
-    <row r="295" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H295" s="7"/>
-    </row>
-    <row r="296" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H296" s="7"/>
-    </row>
-    <row r="297" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H297" s="7"/>
-    </row>
-    <row r="298" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H298" s="7"/>
-    </row>
-    <row r="299" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H299" s="7"/>
-    </row>
-    <row r="300" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B295"/>
+      <c r="C295"/>
+      <c r="D295"/>
+      <c r="E295"/>
+      <c r="F295"/>
+      <c r="G295"/>
+      <c r="H295" s="6"/>
+    </row>
+    <row r="296" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B296"/>
+      <c r="C296"/>
+      <c r="D296"/>
+      <c r="E296"/>
+      <c r="F296"/>
+      <c r="G296"/>
+      <c r="H296" s="6"/>
+    </row>
+    <row r="297" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B297"/>
+      <c r="C297"/>
+      <c r="D297"/>
+      <c r="E297"/>
+      <c r="F297"/>
+      <c r="G297"/>
+      <c r="H297" s="6"/>
+    </row>
+    <row r="298" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B298"/>
+      <c r="C298"/>
+      <c r="D298"/>
+      <c r="E298"/>
+      <c r="F298"/>
+      <c r="G298"/>
+      <c r="H298" s="6"/>
+    </row>
+    <row r="299" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B299"/>
+      <c r="C299"/>
+      <c r="D299"/>
+      <c r="E299"/>
+      <c r="F299"/>
+      <c r="G299"/>
+      <c r="H299" s="6"/>
+    </row>
+    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H300" s="7"/>
     </row>
-    <row r="301" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H301" s="7"/>
     </row>
-    <row r="302" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H302" s="7"/>
     </row>
-    <row r="303" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H303" s="7"/>
     </row>
-    <row r="304" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H304" s="7"/>
     </row>
-    <row r="305" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H305" s="7"/>
     </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H306" s="2"/>
-    </row>
-    <row r="307" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B307"/>
-      <c r="C307"/>
-      <c r="D307"/>
-      <c r="E307"/>
-      <c r="F307"/>
-      <c r="G307"/>
-    </row>
-    <row r="311" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B311"/>
-      <c r="C311"/>
-      <c r="D311"/>
-      <c r="E311"/>
-      <c r="F311"/>
-      <c r="G311"/>
+    <row r="306" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H306" s="7"/>
+    </row>
+    <row r="307" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H307" s="7"/>
+    </row>
+    <row r="308" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H308" s="7"/>
+    </row>
+    <row r="309" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H309" s="7"/>
+    </row>
+    <row r="310" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H310" s="7"/>
+    </row>
+    <row r="311" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H311" s="7"/>
+    </row>
+    <row r="312" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H312" s="7"/>
+    </row>
+    <row r="313" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H313" s="7"/>
+    </row>
+    <row r="314" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H314" s="7"/>
+    </row>
+    <row r="315" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H315" s="7"/>
+    </row>
+    <row r="316" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H316" s="7"/>
+    </row>
+    <row r="317" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H317" s="7"/>
+    </row>
+    <row r="318" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H318" s="7"/>
+    </row>
+    <row r="319" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H319" s="7"/>
+    </row>
+    <row r="320" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H320" s="7"/>
+    </row>
+    <row r="321" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H321" s="7"/>
+    </row>
+    <row r="322" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H322" s="2"/>
+    </row>
+    <row r="323" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B323"/>
+      <c r="C323"/>
+      <c r="D323"/>
+      <c r="E323"/>
+      <c r="F323"/>
+      <c r="G323"/>
+    </row>
+    <row r="327" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B327"/>
+      <c r="C327"/>
+      <c r="D327"/>
+      <c r="E327"/>
+      <c r="F327"/>
+      <c r="G327"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2428,7 +2762,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,7 +2811,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,7 +2909,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentacion APPs/PARAMETROS - CLASES.xlsx
+++ b/Documentacion APPs/PARAMETROS - CLASES.xlsx
@@ -359,15 +359,9 @@
     <t>.:::.NUMERO DE SERIE DE TIPO DE COMPROBANTE DE PAGO .:::.</t>
   </si>
   <si>
-    <t>.:::.PUNTO DE EMISIÓN COMPROBANTE DE PAGO .:::.</t>
-  </si>
-  <si>
     <t>NUMERO DE SERIE</t>
   </si>
   <si>
-    <t>PUNTO EMISIÓN</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
@@ -384,6 +378,12 @@
   </si>
   <si>
     <t>006</t>
+  </si>
+  <si>
+    <t>CAJA(PUNTO EMISIÓN)</t>
+  </si>
+  <si>
+    <t>.:::.CAJA(PUNTO DE EMISIÓN COMPROBANTE DE PAGO) .:::.</t>
   </si>
 </sst>
 </file>
@@ -803,7 +803,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,10 +1611,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G40" s="5">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>109</v>
@@ -1734,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G46" s="9">
         <v>1</v>
@@ -1754,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G47" s="9">
         <v>1</v>
@@ -1774,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G48" s="9">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>4</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G49" s="9">
         <v>1</v>
@@ -1814,7 +1814,7 @@
         <v>5</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G50" s="9">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>6</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G51" s="9">
         <v>1</v>

--- a/Documentacion APPs/PARAMETROS - CLASES.xlsx
+++ b/Documentacion APPs/PARAMETROS - CLASES.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="130">
   <si>
     <t>SOLTERO</t>
   </si>
@@ -384,6 +384,39 @@
   </si>
   <si>
     <t>.:::.CAJA(PUNTO DE EMISIÓN COMPROBANTE DE PAGO) .:::.</t>
+  </si>
+  <si>
+    <t>TIPOS DE CUENTA</t>
+  </si>
+  <si>
+    <t>.:::.TIPOS DE CUENTA.:::.</t>
+  </si>
+  <si>
+    <t>TIPOS DE MONEDA</t>
+  </si>
+  <si>
+    <t>.:::.TIPOS DE MONEDA.:::.</t>
+  </si>
+  <si>
+    <t>SOLES</t>
+  </si>
+  <si>
+    <t>S/.</t>
+  </si>
+  <si>
+    <t>DOLARES</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>EUROS</t>
+  </si>
+  <si>
+    <t>General</t>
   </si>
 </sst>
 </file>
@@ -799,18 +832,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J327"/>
+  <dimension ref="A1:J328"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40:F40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62" customWidth="1"/>
     <col min="6" max="6" width="56" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
@@ -1841,52 +1874,124 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="9"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="9"/>
+      <c r="B52" s="5">
+        <v>0</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D52" s="5">
+        <v>10</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="9">
+        <v>1</v>
+      </c>
+      <c r="C53" s="9">
+        <v>1010</v>
+      </c>
+      <c r="D53" s="9">
+        <v>1001</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="9"/>
+      <c r="B54" s="5">
+        <v>0</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1011</v>
+      </c>
+      <c r="D54" s="5">
+        <v>10</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="9"/>
+      <c r="B55" s="9">
+        <v>1</v>
+      </c>
+      <c r="C55" s="9">
+        <v>1011</v>
+      </c>
+      <c r="D55" s="9">
+        <v>1001</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G55" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="9"/>
+      <c r="B56" s="9">
+        <v>2</v>
+      </c>
+      <c r="C56" s="9">
+        <v>1011</v>
+      </c>
+      <c r="D56" s="9">
+        <v>1002</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="9"/>
+      <c r="B57" s="9">
+        <v>3</v>
+      </c>
+      <c r="C57" s="9">
+        <v>1011</v>
+      </c>
+      <c r="D57" s="9">
+        <v>1003</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="9"/>
@@ -1901,54 +2006,36 @@
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="13"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="3">
-        <v>0</v>
-      </c>
-      <c r="C62" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D62" s="3">
-        <v>10</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" t="s">
-        <v>43</v>
-      </c>
+      <c r="F59" s="13"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="13"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>0</v>
       </c>
       <c r="C63" s="3">
-        <v>2002</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>56</v>
+        <v>2001</v>
+      </c>
+      <c r="D63" s="3">
+        <v>10</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G63" s="3">
         <v>0</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63" t="s">
-        <v>44</v>
+      <c r="I63" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
@@ -1956,191 +2043,197 @@
         <v>0</v>
       </c>
       <c r="C64" s="3">
+        <v>2002</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3">
         <v>2003</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D65" s="3">
         <v>10</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="2">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2">
-        <v>2003</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G65" s="2">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
-      <c r="J65" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" s="2">
         <v>2003</v>
       </c>
       <c r="D66" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="2">
+        <v>2</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2003</v>
+      </c>
+      <c r="D67" s="2">
         <v>1002</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G66" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="3">
-        <v>0</v>
-      </c>
-      <c r="C67" s="3">
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="3">
+        <v>0</v>
+      </c>
+      <c r="C68" s="3">
         <v>2004</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D68" s="3">
         <v>10</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E68" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F68" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G67" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="2">
-        <v>1</v>
-      </c>
-      <c r="C68" s="2">
-        <v>2004</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G68" s="2">
-        <v>1</v>
+      <c r="G68" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" s="2">
         <v>2004</v>
       </c>
       <c r="D69" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="2">
+        <v>2</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2004</v>
+      </c>
+      <c r="D70" s="2">
         <v>1002</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="3">
-        <v>0</v>
-      </c>
-      <c r="C70" s="3">
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3">
         <v>2005</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D71" s="3">
         <v>10</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="2">
-        <v>1</v>
-      </c>
-      <c r="C71" s="2">
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
         <v>2005</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D72" s="2">
         <v>1001</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G71" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="3">
-        <v>0</v>
-      </c>
-      <c r="C72" s="3">
-        <v>2006</v>
-      </c>
-      <c r="D72" s="3">
-        <v>10</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
+      <c r="G72" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
@@ -2148,217 +2241,229 @@
         <v>0</v>
       </c>
       <c r="C73" s="3">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D73" s="3">
         <v>10</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G73" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" s="3">
         <v>2007</v>
       </c>
       <c r="D74" s="3">
+        <v>10</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2">
+        <v>2007</v>
+      </c>
+      <c r="D75" s="2">
         <v>1001</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E75" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F75" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G74" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="C75">
-        <v>2007</v>
-      </c>
-      <c r="D75">
-        <v>1002</v>
-      </c>
-      <c r="E75" t="s">
-        <v>98</v>
-      </c>
-      <c r="F75" t="s">
-        <v>99</v>
-      </c>
-      <c r="G75">
+      <c r="G75" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76">
         <v>2007</v>
       </c>
       <c r="D76">
+        <v>1002</v>
+      </c>
+      <c r="E76" t="s">
+        <v>98</v>
+      </c>
+      <c r="F76" t="s">
+        <v>99</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>2007</v>
+      </c>
+      <c r="D77">
         <v>1003</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E77" t="s">
         <v>100</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F77" t="s">
         <v>101</v>
       </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="3">
-        <v>0</v>
-      </c>
-      <c r="C77" s="3">
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3">
         <v>2008</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D78" s="3">
         <v>10</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G77" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-    </row>
-    <row r="84" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86">
+      <c r="G78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+    </row>
+    <row r="85" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
         <v>2038</v>
       </c>
-      <c r="D86">
+      <c r="D87">
         <v>10</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E87" t="s">
         <v>30</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F87" t="s">
         <v>30</v>
       </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-    </row>
-    <row r="92" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-    </row>
-    <row r="95" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-    </row>
-    <row r="100" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-    </row>
-    <row r="104" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
-      <c r="G104"/>
-    </row>
-    <row r="108" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108"/>
-      <c r="G108"/>
-    </row>
-    <row r="112" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B112"/>
-      <c r="C112"/>
-      <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112"/>
-      <c r="G112"/>
-    </row>
-    <row r="115" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115"/>
-      <c r="G115"/>
-    </row>
-    <row r="119" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B119"/>
-      <c r="C119"/>
-      <c r="D119"/>
-      <c r="E119"/>
-      <c r="F119"/>
-      <c r="G119"/>
-    </row>
-    <row r="128" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B128"/>
-      <c r="C128"/>
-      <c r="D128"/>
-      <c r="E128"/>
-      <c r="F128"/>
-      <c r="G128"/>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+    </row>
+    <row r="93" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+    </row>
+    <row r="96" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+    </row>
+    <row r="101" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+    </row>
+    <row r="105" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+    </row>
+    <row r="109" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+    </row>
+    <row r="113" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+    </row>
+    <row r="116" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+    </row>
+    <row r="120" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
     </row>
     <row r="129" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129"/>
@@ -2368,239 +2473,244 @@
       <c r="F129"/>
       <c r="G129"/>
     </row>
-    <row r="139" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B139"/>
-      <c r="C139"/>
-      <c r="D139"/>
-      <c r="E139"/>
-      <c r="F139"/>
-      <c r="G139"/>
-    </row>
-    <row r="147" spans="2:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B147"/>
-      <c r="C147"/>
-      <c r="D147"/>
-      <c r="E147"/>
-      <c r="F147"/>
-      <c r="G147"/>
-      <c r="I147" s="4"/>
-    </row>
-    <row r="155" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B155"/>
-      <c r="C155"/>
-      <c r="D155"/>
-      <c r="E155"/>
-      <c r="F155"/>
-      <c r="G155"/>
-    </row>
-    <row r="161" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B161"/>
-      <c r="C161"/>
-      <c r="D161"/>
-      <c r="E161"/>
-      <c r="F161"/>
-      <c r="G161"/>
-    </row>
-    <row r="164" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B164"/>
-      <c r="C164"/>
-      <c r="D164"/>
-      <c r="E164"/>
-      <c r="F164"/>
-      <c r="G164"/>
-    </row>
-    <row r="168" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B168"/>
-      <c r="C168"/>
-      <c r="D168"/>
-      <c r="E168"/>
-      <c r="F168"/>
-      <c r="G168"/>
-    </row>
-    <row r="173" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B173"/>
-      <c r="C173"/>
-      <c r="D173"/>
-      <c r="E173"/>
-      <c r="F173"/>
-      <c r="G173"/>
-    </row>
-    <row r="176" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B176"/>
-      <c r="C176"/>
-      <c r="D176"/>
-      <c r="E176"/>
-      <c r="F176"/>
-      <c r="G176"/>
-    </row>
-    <row r="183" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B183"/>
-      <c r="C183"/>
-      <c r="D183"/>
-      <c r="E183"/>
-      <c r="F183"/>
-      <c r="G183"/>
-    </row>
-    <row r="186" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B186"/>
-      <c r="C186"/>
-      <c r="D186"/>
-      <c r="E186"/>
-      <c r="F186"/>
-      <c r="G186"/>
-    </row>
-    <row r="192" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B192"/>
-      <c r="C192"/>
-      <c r="D192"/>
-      <c r="E192"/>
-      <c r="F192"/>
-      <c r="G192"/>
-    </row>
-    <row r="200" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B200"/>
-      <c r="C200"/>
-      <c r="D200"/>
-      <c r="E200"/>
-      <c r="F200"/>
-      <c r="G200"/>
-    </row>
-    <row r="203" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B203"/>
-      <c r="C203"/>
-      <c r="D203"/>
-      <c r="E203"/>
-      <c r="F203"/>
-      <c r="G203"/>
-    </row>
-    <row r="208" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B208"/>
-      <c r="C208"/>
-      <c r="D208"/>
-      <c r="E208"/>
-      <c r="F208"/>
-      <c r="G208"/>
-    </row>
-    <row r="216" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B216"/>
-      <c r="C216"/>
-      <c r="D216"/>
-      <c r="E216"/>
-      <c r="F216"/>
-      <c r="G216"/>
-    </row>
-    <row r="221" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B221"/>
-      <c r="C221"/>
-      <c r="D221"/>
-      <c r="E221"/>
-      <c r="F221"/>
-      <c r="G221"/>
-    </row>
-    <row r="235" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H235" s="3"/>
-    </row>
-    <row r="244" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H244" s="3"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H262" s="6"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+    </row>
+    <row r="140" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
+    </row>
+    <row r="148" spans="2:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="I148" s="4"/>
+    </row>
+    <row r="156" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156"/>
+    </row>
+    <row r="162" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162"/>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162"/>
+      <c r="G162"/>
+    </row>
+    <row r="165" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165"/>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165"/>
+      <c r="G165"/>
+    </row>
+    <row r="169" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169"/>
+      <c r="G169"/>
+    </row>
+    <row r="174" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174"/>
+      <c r="C174"/>
+      <c r="D174"/>
+      <c r="E174"/>
+      <c r="F174"/>
+      <c r="G174"/>
+    </row>
+    <row r="177" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177"/>
+      <c r="C177"/>
+      <c r="D177"/>
+      <c r="E177"/>
+      <c r="F177"/>
+      <c r="G177"/>
+    </row>
+    <row r="184" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B184"/>
+      <c r="C184"/>
+      <c r="D184"/>
+      <c r="E184"/>
+      <c r="F184"/>
+      <c r="G184"/>
+    </row>
+    <row r="187" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187"/>
+      <c r="C187"/>
+      <c r="D187"/>
+      <c r="E187"/>
+      <c r="F187"/>
+      <c r="G187"/>
+    </row>
+    <row r="193" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B193"/>
+      <c r="C193"/>
+      <c r="D193"/>
+      <c r="E193"/>
+      <c r="F193"/>
+      <c r="G193"/>
+    </row>
+    <row r="201" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B201"/>
+      <c r="C201"/>
+      <c r="D201"/>
+      <c r="E201"/>
+      <c r="F201"/>
+      <c r="G201"/>
+    </row>
+    <row r="204" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B204"/>
+      <c r="C204"/>
+      <c r="D204"/>
+      <c r="E204"/>
+      <c r="F204"/>
+      <c r="G204"/>
+    </row>
+    <row r="209" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B209"/>
+      <c r="C209"/>
+      <c r="D209"/>
+      <c r="E209"/>
+      <c r="F209"/>
+      <c r="G209"/>
+    </row>
+    <row r="217" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B217"/>
+      <c r="C217"/>
+      <c r="D217"/>
+      <c r="E217"/>
+      <c r="F217"/>
+      <c r="G217"/>
+    </row>
+    <row r="222" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B222"/>
+      <c r="C222"/>
+      <c r="D222"/>
+      <c r="E222"/>
+      <c r="F222"/>
+      <c r="G222"/>
+    </row>
+    <row r="236" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H236" s="3"/>
+    </row>
+    <row r="245" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H245" s="3"/>
+    </row>
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H263" s="6"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H264" s="7"/>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H264" s="6"/>
+    </row>
+    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H265" s="7"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H266" s="7"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H267" s="7"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H268" s="3"/>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H269" s="7"/>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H268" s="7"/>
+    </row>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H269" s="3"/>
+    </row>
+    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H270" s="7"/>
     </row>
-    <row r="271" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B271"/>
-      <c r="C271"/>
-      <c r="D271"/>
-      <c r="E271"/>
-      <c r="F271"/>
-      <c r="G271"/>
-      <c r="H271" s="8"/>
-    </row>
-    <row r="272" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272"/>
+    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H271" s="7"/>
+    </row>
+    <row r="272" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B272"/>
       <c r="C272"/>
       <c r="D272"/>
       <c r="E272"/>
       <c r="F272"/>
       <c r="G272"/>
-      <c r="H272" s="7"/>
-    </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H272" s="8"/>
+    </row>
+    <row r="273" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273"/>
+      <c r="B273"/>
+      <c r="C273"/>
+      <c r="D273"/>
+      <c r="E273"/>
+      <c r="F273"/>
+      <c r="G273"/>
       <c r="H273" s="7"/>
     </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H274" s="7"/>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H275" s="7"/>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H276" s="7"/>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H277" s="7"/>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H278" s="7"/>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H279" s="7"/>
     </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H280" s="7"/>
     </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H281" s="7"/>
     </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H282" s="7"/>
     </row>
-    <row r="283" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B283"/>
-      <c r="C283"/>
-      <c r="D283"/>
-      <c r="E283"/>
-      <c r="F283"/>
-      <c r="G283"/>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H283" s="7"/>
     </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B284"/>
+      <c r="C284"/>
+      <c r="D284"/>
+      <c r="E284"/>
+      <c r="F284"/>
+      <c r="G284"/>
       <c r="H284" s="7"/>
     </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H285" s="7"/>
     </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H286" s="7"/>
     </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H287" s="7"/>
     </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H288" s="7"/>
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.25">
@@ -2621,14 +2731,8 @@
     <row r="294" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H294" s="7"/>
     </row>
-    <row r="295" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B295"/>
-      <c r="C295"/>
-      <c r="D295"/>
-      <c r="E295"/>
-      <c r="F295"/>
-      <c r="G295"/>
-      <c r="H295" s="6"/>
+    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H295" s="7"/>
     </row>
     <row r="296" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B296"/>
@@ -2666,8 +2770,14 @@
       <c r="G299"/>
       <c r="H299" s="6"/>
     </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H300" s="7"/>
+    <row r="300" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B300"/>
+      <c r="C300"/>
+      <c r="D300"/>
+      <c r="E300"/>
+      <c r="F300"/>
+      <c r="G300"/>
+      <c r="H300" s="6"/>
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H301" s="7"/>
@@ -2733,23 +2843,26 @@
       <c r="H321" s="7"/>
     </row>
     <row r="322" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H322" s="2"/>
-    </row>
-    <row r="323" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B323"/>
-      <c r="C323"/>
-      <c r="D323"/>
-      <c r="E323"/>
-      <c r="F323"/>
-      <c r="G323"/>
-    </row>
-    <row r="327" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B327"/>
-      <c r="C327"/>
-      <c r="D327"/>
-      <c r="E327"/>
-      <c r="F327"/>
-      <c r="G327"/>
+      <c r="H322" s="7"/>
+    </row>
+    <row r="323" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H323" s="2"/>
+    </row>
+    <row r="324" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B324"/>
+      <c r="C324"/>
+      <c r="D324"/>
+      <c r="E324"/>
+      <c r="F324"/>
+      <c r="G324"/>
+    </row>
+    <row r="328" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B328"/>
+      <c r="C328"/>
+      <c r="D328"/>
+      <c r="E328"/>
+      <c r="F328"/>
+      <c r="G328"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentacion APPs/PARAMETROS - CLASES.xlsx
+++ b/Documentacion APPs/PARAMETROS - CLASES.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Parametros Finales" sheetId="8" r:id="rId1"/>
     <sheet name="nPerTipo-Persona" sheetId="9" r:id="rId2"/>
     <sheet name="nPerDocTipo -PerDocumeto" sheetId="10" r:id="rId3"/>
     <sheet name="nPerRelTipo-PerRelacion" sheetId="11" r:id="rId4"/>
+    <sheet name="CtaCteEstado" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="135">
   <si>
     <t>SOLTERO</t>
   </si>
@@ -417,6 +418,21 @@
   </si>
   <si>
     <t>General</t>
+  </si>
+  <si>
+    <t>CtaCteEstado</t>
+  </si>
+  <si>
+    <t>Cuenta Corriente</t>
+  </si>
+  <si>
+    <t>Eliminada</t>
+  </si>
+  <si>
+    <t>Pagada</t>
+  </si>
+  <si>
+    <t>Por Pagar</t>
   </si>
 </sst>
 </file>
@@ -834,7 +850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
@@ -3063,4 +3079,54 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>